--- a/medicine/Psychotrope/Ursus_(bière)/Ursus_(bière).xlsx
+++ b/medicine/Psychotrope/Ursus_(bière)/Ursus_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ursus_(bi%C3%A8re)</t>
+          <t>Ursus_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ursus est une bière roumaine à base d'eau de source naturelle. Produite à Cluj et à Buzău depuis 1878, l'Ursus est la bière roumaine la plus réputée et la plus vendue. En 1996, la brasserie clujoise a été acquise par la South African Breweries puis de 2002 à Mars 2017, elle a fait partie de la SABMiller. Elle a été rachetée depuis par Asahi Breweries Europe Ltd.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ursus_(bi%C3%A8re)</t>
+          <t>Ursus_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ursus Pils : blonde pilsner
 Ursus Premium Pils : blonde premium pilsner
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ursus_(bi%C3%A8re)</t>
+          <t>Ursus_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>Les brasseries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mini-Brasserie de Cluj–Napoca
 Brasserie de Timișoara
